--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H2">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>2165.433729835716</v>
+        <v>255.0423041303461</v>
       </c>
       <c r="R2">
-        <v>19488.90356852144</v>
+        <v>2295.380737173115</v>
       </c>
       <c r="S2">
-        <v>0.1131587435823258</v>
+        <v>0.01496614507677669</v>
       </c>
       <c r="T2">
-        <v>0.1131587435823258</v>
+        <v>0.01496614507677669</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H3">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>5319.508363456156</v>
+        <v>3803.220595357369</v>
       </c>
       <c r="R3">
-        <v>47875.57527110541</v>
+        <v>34228.98535821632</v>
       </c>
       <c r="S3">
-        <v>0.2779807456541468</v>
+        <v>0.2231769015073404</v>
       </c>
       <c r="T3">
-        <v>0.2779807456541468</v>
+        <v>0.2231769015073404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H4">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>2727.185127809841</v>
+        <v>1443.673850337518</v>
       </c>
       <c r="R4">
-        <v>24544.66615028857</v>
+        <v>12993.06465303767</v>
       </c>
       <c r="S4">
-        <v>0.1425141015988418</v>
+        <v>0.08471626839074378</v>
       </c>
       <c r="T4">
-        <v>0.1425141015988418</v>
+        <v>0.08471626839074378</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H5">
         <v>199.18623</v>
       </c>
       <c r="I5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>1097.88820717764</v>
+        <v>180.8612074990167</v>
       </c>
       <c r="R5">
-        <v>9880.99386459876</v>
+        <v>1627.75086749115</v>
       </c>
       <c r="S5">
-        <v>0.05737217833376008</v>
+        <v>0.01061312192665855</v>
       </c>
       <c r="T5">
-        <v>0.05737217833376009</v>
+        <v>0.01061312192665855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H6">
         <v>199.18623</v>
       </c>
       <c r="I6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
-        <v>2697.023427571908</v>
+        <v>2697.023427571907</v>
       </c>
       <c r="R6">
-        <v>24273.21084814717</v>
+        <v>24273.21084814716</v>
       </c>
       <c r="S6">
-        <v>0.1409379461819359</v>
+        <v>0.1582641124190816</v>
       </c>
       <c r="T6">
-        <v>0.1409379461819359</v>
+        <v>0.1582641124190816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H7">
         <v>199.18623</v>
       </c>
       <c r="I7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>1382.69961779889</v>
+        <v>1023.76974948185</v>
       </c>
       <c r="R7">
-        <v>12444.29656019001</v>
+        <v>9213.92774533665</v>
       </c>
       <c r="S7">
-        <v>0.07225552523085291</v>
+        <v>0.0600758632894488</v>
       </c>
       <c r="T7">
-        <v>0.07225552523085291</v>
+        <v>0.0600758632894488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H8">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>794.42969630034</v>
+        <v>354.0452130967761</v>
       </c>
       <c r="R8">
-        <v>7149.86726670306</v>
+        <v>3186.406917870985</v>
       </c>
       <c r="S8">
-        <v>0.04151439273306935</v>
+        <v>0.02077573773893069</v>
       </c>
       <c r="T8">
-        <v>0.04151439273306936</v>
+        <v>0.02077573773893069</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H9">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>1951.560722187607</v>
+        <v>5279.563524681681</v>
       </c>
       <c r="R9">
-        <v>17564.04649968846</v>
+        <v>47516.07172213513</v>
       </c>
       <c r="S9">
-        <v>0.1019824141023794</v>
+        <v>0.3098102250992132</v>
       </c>
       <c r="T9">
-        <v>0.1019824141023794</v>
+        <v>0.3098102250992132</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H10">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>1000.518659605965</v>
+        <v>2004.082490267048</v>
       </c>
       <c r="R10">
-        <v>9004.667936453685</v>
+        <v>18036.74241240343</v>
       </c>
       <c r="S10">
-        <v>0.05228395258268796</v>
+        <v>0.1176016245518063</v>
       </c>
       <c r="T10">
-        <v>0.05228395258268796</v>
+        <v>0.1176016245518063</v>
       </c>
     </row>
   </sheetData>
